--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st06.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">아미야는 지마 일행 중 유일하게 후방 지원 부서에서 일하던 나탈리야의 전투원 전환 신청을 받게 된다.
+    <t xml:space="preserve">아미야는 지마 일행 중 유일하게 후방 지원부에서 일하던 나탈리야의 전투원 전환 신청을 받게 된다.
 </t>
   </si>
   <si>
